--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.8374227952634</v>
+        <v>5.231719</v>
       </c>
       <c r="H2">
-        <v>7.8374227952634</v>
+        <v>15.695157</v>
       </c>
       <c r="I2">
-        <v>0.9279521658877697</v>
+        <v>0.362499186434781</v>
       </c>
       <c r="J2">
-        <v>0.9279521658877697</v>
+        <v>0.362499186434781</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8906574007815899</v>
+        <v>1.051909333333333</v>
       </c>
       <c r="N2">
-        <v>0.8906574007815899</v>
+        <v>3.155728</v>
       </c>
       <c r="O2">
-        <v>0.7578549225531123</v>
+        <v>0.6689916625345733</v>
       </c>
       <c r="P2">
-        <v>0.7578549225531123</v>
+        <v>0.6689916625345734</v>
       </c>
       <c r="Q2">
-        <v>6.980458615655683</v>
+        <v>5.503294045477333</v>
       </c>
       <c r="R2">
-        <v>6.980458615655683</v>
+        <v>49.529646409296</v>
       </c>
       <c r="S2">
-        <v>0.7032531168118685</v>
+        <v>0.2425089334004344</v>
       </c>
       <c r="T2">
-        <v>0.7032531168118685</v>
+        <v>0.2425089334004344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.8374227952634</v>
+        <v>5.231719</v>
       </c>
       <c r="H3">
-        <v>7.8374227952634</v>
+        <v>15.695157</v>
       </c>
       <c r="I3">
-        <v>0.9279521658877697</v>
+        <v>0.362499186434781</v>
       </c>
       <c r="J3">
-        <v>0.9279521658877697</v>
+        <v>0.362499186434781</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.284577296884665</v>
+        <v>0.1261633333333333</v>
       </c>
       <c r="N3">
-        <v>0.284577296884665</v>
+        <v>0.37849</v>
       </c>
       <c r="O3">
-        <v>0.2421450774468877</v>
+        <v>0.08023716060215286</v>
       </c>
       <c r="P3">
-        <v>0.2421450774468877</v>
+        <v>0.08023716060215287</v>
       </c>
       <c r="Q3">
-        <v>2.230352593618314</v>
+        <v>0.6600511081033332</v>
       </c>
       <c r="R3">
-        <v>2.230352593618314</v>
+        <v>5.94045997293</v>
       </c>
       <c r="S3">
-        <v>0.2246990490759012</v>
+        <v>0.02908590544011727</v>
       </c>
       <c r="T3">
-        <v>0.2246990490759012</v>
+        <v>0.02908590544011727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6085112554054239</v>
+        <v>5.231719</v>
       </c>
       <c r="H4">
-        <v>0.6085112554054239</v>
+        <v>15.695157</v>
       </c>
       <c r="I4">
-        <v>0.0720478341122302</v>
+        <v>0.362499186434781</v>
       </c>
       <c r="J4">
-        <v>0.0720478341122302</v>
+        <v>0.362499186434781</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8906574007815899</v>
+        <v>0.3943076666666667</v>
       </c>
       <c r="N4">
-        <v>0.8906574007815899</v>
+        <v>1.182923</v>
       </c>
       <c r="O4">
-        <v>0.7578549225531123</v>
+        <v>0.2507711768632738</v>
       </c>
       <c r="P4">
-        <v>0.7578549225531123</v>
+        <v>0.2507711768632738</v>
       </c>
       <c r="Q4">
-        <v>0.5419750530857371</v>
+        <v>2.062906911545667</v>
       </c>
       <c r="R4">
-        <v>0.5419750530857371</v>
+        <v>18.566162203911</v>
       </c>
       <c r="S4">
-        <v>0.0546018057412437</v>
+        <v>0.09090434759422931</v>
       </c>
       <c r="T4">
-        <v>0.0546018057412437</v>
+        <v>0.09090434759422931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.316945333333335</v>
+      </c>
+      <c r="H5">
+        <v>24.950836</v>
+      </c>
+      <c r="I5">
+        <v>0.5762706133406404</v>
+      </c>
+      <c r="J5">
+        <v>0.5762706133406403</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.051909333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.155728</v>
+      </c>
+      <c r="O5">
+        <v>0.6689916625345733</v>
+      </c>
+      <c r="P5">
+        <v>0.6689916625345734</v>
+      </c>
+      <c r="Q5">
+        <v>8.748672420956446</v>
+      </c>
+      <c r="R5">
+        <v>78.738051788608</v>
+      </c>
+      <c r="S5">
+        <v>0.3855202356885733</v>
+      </c>
+      <c r="T5">
+        <v>0.3855202356885733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.316945333333335</v>
+      </c>
+      <c r="H6">
+        <v>24.950836</v>
+      </c>
+      <c r="I6">
+        <v>0.5762706133406404</v>
+      </c>
+      <c r="J6">
+        <v>0.5762706133406403</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1261633333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.37849</v>
+      </c>
+      <c r="O6">
+        <v>0.08023716060215286</v>
+      </c>
+      <c r="P6">
+        <v>0.08023716060215287</v>
+      </c>
+      <c r="Q6">
+        <v>1.049293546404445</v>
+      </c>
+      <c r="R6">
+        <v>9.443641917640001</v>
+      </c>
+      <c r="S6">
+        <v>0.0462383177529141</v>
+      </c>
+      <c r="T6">
+        <v>0.0462383177529141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.316945333333335</v>
+      </c>
+      <c r="H7">
+        <v>24.950836</v>
+      </c>
+      <c r="I7">
+        <v>0.5762706133406404</v>
+      </c>
+      <c r="J7">
+        <v>0.5762706133406403</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3943076666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.182923</v>
+      </c>
+      <c r="O7">
+        <v>0.2507711768632738</v>
+      </c>
+      <c r="P7">
+        <v>0.2507711768632738</v>
+      </c>
+      <c r="Q7">
+        <v>3.27943530818089</v>
+      </c>
+      <c r="R7">
+        <v>29.51491777362801</v>
+      </c>
+      <c r="S7">
+        <v>0.144512059899153</v>
+      </c>
+      <c r="T7">
+        <v>0.144512059899153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8836963333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.651089</v>
+      </c>
+      <c r="I8">
+        <v>0.06123020022457864</v>
+      </c>
+      <c r="J8">
+        <v>0.06123020022457864</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.051909333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.155728</v>
+      </c>
+      <c r="O8">
+        <v>0.6689916625345733</v>
+      </c>
+      <c r="P8">
+        <v>0.6689916625345734</v>
+      </c>
+      <c r="Q8">
+        <v>0.9295684208657777</v>
+      </c>
+      <c r="R8">
+        <v>8.366115787791999</v>
+      </c>
+      <c r="S8">
+        <v>0.04096249344556567</v>
+      </c>
+      <c r="T8">
+        <v>0.04096249344556568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.6085112554054239</v>
-      </c>
-      <c r="H5">
-        <v>0.6085112554054239</v>
-      </c>
-      <c r="I5">
-        <v>0.0720478341122302</v>
-      </c>
-      <c r="J5">
-        <v>0.0720478341122302</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.284577296884665</v>
-      </c>
-      <c r="N5">
-        <v>0.284577296884665</v>
-      </c>
-      <c r="O5">
-        <v>0.2421450774468877</v>
-      </c>
-      <c r="P5">
-        <v>0.2421450774468877</v>
-      </c>
-      <c r="Q5">
-        <v>0.1731684881871695</v>
-      </c>
-      <c r="R5">
-        <v>0.1731684881871695</v>
-      </c>
-      <c r="S5">
-        <v>0.0174460283709865</v>
-      </c>
-      <c r="T5">
-        <v>0.0174460283709865</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8836963333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.651089</v>
+      </c>
+      <c r="I9">
+        <v>0.06123020022457864</v>
+      </c>
+      <c r="J9">
+        <v>0.06123020022457864</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1261633333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.37849</v>
+      </c>
+      <c r="O9">
+        <v>0.08023716060215286</v>
+      </c>
+      <c r="P9">
+        <v>0.08023716060215287</v>
+      </c>
+      <c r="Q9">
+        <v>0.1114900750677778</v>
+      </c>
+      <c r="R9">
+        <v>1.00341067561</v>
+      </c>
+      <c r="S9">
+        <v>0.004912937409121492</v>
+      </c>
+      <c r="T9">
+        <v>0.004912937409121493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8836963333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.651089</v>
+      </c>
+      <c r="I10">
+        <v>0.06123020022457864</v>
+      </c>
+      <c r="J10">
+        <v>0.06123020022457864</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3943076666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.182923</v>
+      </c>
+      <c r="O10">
+        <v>0.2507711768632738</v>
+      </c>
+      <c r="P10">
+        <v>0.2507711768632738</v>
+      </c>
+      <c r="Q10">
+        <v>0.3484482392385556</v>
+      </c>
+      <c r="R10">
+        <v>3.136034153147</v>
+      </c>
+      <c r="S10">
+        <v>0.01535476936989148</v>
+      </c>
+      <c r="T10">
+        <v>0.01535476936989148</v>
       </c>
     </row>
   </sheetData>
